--- a/tablas_db.xlsx
+++ b/tablas_db.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\extranet-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\extranet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A1A8A1-4532-429F-821E-813129B5848B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9C3565-4B35-4400-A895-8C9DFEB87BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>EXTRANET_DB</t>
   </si>
@@ -75,26 +75,130 @@
     <t>descp_tarea</t>
   </si>
   <si>
-    <t>id_obra</t>
-  </si>
-  <si>
-    <t>ubicación</t>
-  </si>
-  <si>
-    <t>fecha_inicio</t>
-  </si>
-  <si>
-    <t>OBRA</t>
+    <t>Sergi</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Reus</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>sreus</t>
+  </si>
+  <si>
+    <t>rdiaz</t>
+  </si>
+  <si>
+    <t>xreus</t>
+  </si>
+  <si>
+    <t>sergi@reusconstruccions.com</t>
+  </si>
+  <si>
+    <t>xavier@reusconstrucccions.com</t>
+  </si>
+  <si>
+    <t>Llevar pintor</t>
+  </si>
+  <si>
+    <t>llevar pintor i repasos obra tartera</t>
+  </si>
+  <si>
+    <t>Tabla sql</t>
+  </si>
+  <si>
+    <t>crear tabla sql para practicas rodrigo</t>
+  </si>
+  <si>
+    <t>Hacer sql</t>
+  </si>
+  <si>
+    <t>entrar i relacionar datos sql</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>arreglar ordenadores</t>
+  </si>
+  <si>
+    <t>Llamar cliente</t>
+  </si>
+  <si>
+    <t>llamar a isi costa para asunto obra</t>
+  </si>
+  <si>
+    <t>Presupuesto</t>
+  </si>
+  <si>
+    <t>Acabar presupuesto obra barcelona</t>
+  </si>
+  <si>
+    <t>titulo_subtarea</t>
+  </si>
+  <si>
+    <t>descp_subtarea</t>
+  </si>
+  <si>
+    <t>Definir</t>
+  </si>
+  <si>
+    <t>definir campos</t>
+  </si>
+  <si>
+    <t>teclear</t>
+  </si>
+  <si>
+    <t>teclear campos</t>
+  </si>
+  <si>
+    <t>aprender</t>
+  </si>
+  <si>
+    <t>aprender sql</t>
+  </si>
+  <si>
+    <t>explicar</t>
+  </si>
+  <si>
+    <t>explicar a sergi sql</t>
+  </si>
+  <si>
+    <t>perdir mas press</t>
+  </si>
+  <si>
+    <t>pedir presupuestos industriales</t>
+  </si>
+  <si>
+    <t>escoger</t>
+  </si>
+  <si>
+    <t>escoger i entrar presupuestos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,10 +273,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,8 +294,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,141 +584,420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I33"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B3:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="6"/>
+    <col min="2" max="2" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.7109375" style="6"/>
+    <col min="14" max="14" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E8" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
+        <v>999666999</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>111222333</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1">
+        <v>111222333</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="3" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="2" t="s">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="7">
+        <v>44617</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B28:F28"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{C1FE7601-5EF4-4FB0-A795-776AA262C629}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{D151C181-2264-49E9-B50C-3B5BC18F1A1C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
--- a/tablas_db.xlsx
+++ b/tablas_db.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi\Desktop\extranet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\extranet-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9C3565-4B35-4400-A895-8C9DFEB87BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E487C77A-A56C-4F2E-BAE7-44E9D660CA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TAREAS" sheetId="1" r:id="rId1"/>
+    <sheet name="OBRAS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -282,6 +283,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -292,15 +302,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,46 +591,46 @@
   <dimension ref="B3:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="Q40" sqref="Q40:R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="6"/>
-    <col min="2" max="2" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="8.7109375" style="6"/>
-    <col min="14" max="14" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="8.7265625" style="2"/>
+    <col min="14" max="14" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -655,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -665,7 +666,7 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>44617</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -677,11 +678,11 @@
       <c r="H8" s="1">
         <v>999666999</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -691,7 +692,7 @@
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>44617</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -705,7 +706,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -715,7 +716,7 @@
       <c r="D10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <v>44617</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -727,20 +728,20 @@
       <c r="H10" s="1">
         <v>111222333</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -757,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>1</v>
       </c>
@@ -767,14 +768,14 @@
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>44617</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>2</v>
       </c>
@@ -784,14 +785,14 @@
       <c r="D18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>44617</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -801,14 +802,14 @@
       <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="3">
         <v>44617</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>4</v>
       </c>
@@ -818,14 +819,14 @@
       <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>44617</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>5</v>
       </c>
@@ -835,14 +836,14 @@
       <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>44617</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -852,23 +853,23 @@
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="3">
         <v>44617</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
@@ -885,7 +886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>1</v>
       </c>
@@ -895,14 +896,14 @@
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="3">
         <v>44617</v>
       </c>
       <c r="F30" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>2</v>
       </c>
@@ -912,14 +913,14 @@
       <c r="D31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="3">
         <v>44617</v>
       </c>
       <c r="F31" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>3</v>
       </c>
@@ -929,14 +930,14 @@
       <c r="D32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="3">
         <v>44617</v>
       </c>
       <c r="F32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>4</v>
       </c>
@@ -946,14 +947,14 @@
       <c r="D33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="3">
         <v>44617</v>
       </c>
       <c r="F33" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>5</v>
       </c>
@@ -963,14 +964,14 @@
       <c r="D34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="3">
         <v>44617</v>
       </c>
       <c r="F34" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>6</v>
       </c>
@@ -980,7 +981,7 @@
       <c r="D35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="3">
         <v>44617</v>
       </c>
       <c r="F35" s="1">
@@ -1000,4 +1001,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14E3DB6-4650-4974-AD7D-5D8173544862}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>